--- a/biology/Botanique/Tillandsia_rupestris/Tillandsia_rupestris.xlsx
+++ b/biology/Botanique/Tillandsia_rupestris/Tillandsia_rupestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia rupestris Mez est une plante de la famille des Bromeliaceae.
 L'épithète rupestris signifie « rupestre, qui pousse sur les parois rocheuses » par référence à l'habitat de la plante.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia rupestris Mez in C.DC., Monogr. Phan. 9: 856, n° 220 (1896)
-Diagnose originale[1] :
+Diagnose originale :
 « foliis caulem elongatum quaquaverse vaginantibus, dense lepidibus magnis, reflexis tomentosis ; inflorescentia simplicissima, dense disticha subflabellata +/- 6-flora ; bracteolis quam sepala brevioribus, dorso glabris ; floribus stricte erectis ; sepalis subaequaliter ad 3 mm. connatis ; petalis lamina violacea, latissime obovata, maxima ; staminibus profunde inclusis, stylum superantibus. »
-Type : leg. Balansa, n° 4746 ; "Paraguay, ad saxa granitica montis Cerro San Thomas prope Paranaguari" ; Herb. Boiss.-Barbey., Paris[1].
+Type : leg. Balansa, n° 4746 ; "Paraguay, ad saxa granitica montis Cerro San Thomas prope Paranaguari" ; Herb. Boiss.-Barbey., Paris.
 </t>
         </is>
       </c>
@@ -548,10 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-Tillandsia arhiza var. rupestris (Mez) Hassl.
-Synonymie taxonomique
-(aucune)</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tillandsia arhiza var. rupestris (Mez) Hassl.</t>
         </is>
       </c>
     </row>
@@ -576,10 +593,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +629,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Biotype : plante herbacée vivace rameuse ; saxicole[1].
-Habitat : rochers granitiques[1].
-Altitude : ?</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -634,13 +657,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique du sud :
- Paraguay[1]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Biotype : plante herbacée vivace rameuse ; saxicole.
+Habitat : rochers granitiques.
+Altitude : ?</t>
         </is>
       </c>
     </row>
@@ -665,10 +691,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Comportement en culture</t>
+          <t>Distribution</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique du sud :
+ Paraguay</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -691,15 +724,82 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Comportement en culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tillandsia_rupestris</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_rupestris</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Taxons infraspécifiques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia rupestris var. rupestris
-(autonyme)
-Tillandsia rupestris var. pendens Chodat &amp; Vischer
-Tillandsia rupestris var. pendens Chodat &amp; Vischer, in Bull. Soc. Bot. Genève, ser. 2, 8: 229, fig. 91, 96 (1916)
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tillandsia rupestris var. rupestris</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(autonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tillandsia_rupestris</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_rupestris</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tillandsia rupestris var. pendens Chodat &amp; Vischer</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia rupestris var. pendens Chodat &amp; Vischer, in Bull. Soc. Bot. Genève, ser. 2, 8: 229, fig. 91, 96 (1916)
 Diagnose originale : (à compléter)
 Type : (à compléter)
 Distribution :  Paraguay.
